--- a/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
+++ b/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Mean reading" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,10 +19,10 @@
     <definedName function="false" hidden="false" name="triangledown" vbProcedure="false">"▽"</definedName>
     <definedName function="false" hidden="false" name="triangleup" vbProcedure="false">"△"</definedName>
     <definedName function="false" hidden="false" name="triangleupblack" vbProcedure="false">"▲"</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Mean reading'!$A$2:$L$110</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'NMS reading'!$A$2:$L$110</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Mean numeracy'!$A$2:$L$110</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'NMS numeracy'!$A$2:$L$110</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Mean reading'!$A$2:$L$122</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'NMS reading'!$A$2:$L$122</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Mean numeracy'!$A$2:$L$122</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'NMS numeracy'!$A$2:$L$122</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="43">
   <si>
-    <t xml:space="preserve">Mean scale score, reading, 2008-2016</t>
+    <t xml:space="preserve">Mean scale score, reading, 2008-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -96,19 +96,19 @@
     <t xml:space="preserve">Year 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Proportion at or above the national minimum standard in reading, 2008-2016</t>
+    <t xml:space="preserve">Proportion at or above the national minimum standard in reading, 2008-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Proportion at or above the national minimum standard in reading</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean scale score, numeracy, 2008-2016</t>
+    <t xml:space="preserve">Mean scale score, numeracy, 2008-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Mean scale score, numeracy</t>
   </si>
   <si>
-    <t xml:space="preserve">Proportion at or above the national minimum standard in numeracy, 2008-2016</t>
+    <t xml:space="preserve">Proportion at or above the national minimum standard in numeracy, 2008-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Proportion at or above the national minimum standard in numeracy</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">Short title</t>
   </si>
   <si>
-    <t xml:space="preserve">Literacy and numeracy improvement</t>
+    <t xml:space="preserve">Improve the literacy and numeracy achievement of Year 3, 5, 7 and 9 students in national testing</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -132,13 +132,16 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The National Assessment Program—Literacy and Numeracy (NAPLAN) measures proportions of children in Years 3, 5, 7 and 9 meeting national minimum standards (NMS) and their average scores. Tracking these measures over time provides an indication of the performance of students, schools, jurisdictions and the system as a whole. Results for the Northern Territory may reflect, in part, a high proportion of disadvantaged Indigenous students. In the Northern Territory, Indigenous children made up 44 per cent of the 5-19 year old population.</t>
+    <t xml:space="preserve">The National Assessment Program—Literacy and Numeracy (NAPLAN) measures proportions of children in Years 3, 5, 7 and 9 meeting national minimum standards (NMS) and their average scores. Tracking these measures over time provides an indication of the performance of students, schools, jurisdictions and the system as a whole. Results for the Northern Territory may reflect, in part, a high proportion of disadvantaged Indigenous students. In the Northern Territory, Indigenous children made up 44 per cent of the 5–19 year old population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationally, between 2008 and 2017, at the national level, four areas showed improvements in the proportion of students at or above the national minimum standard. The four areas with significant improvement were Year 3 and 5 reading, and Years 5 and 9 numeracy.</t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
   </si>
   <si>
-    <t xml:space="preserve">Outcomes for students can be affected by the quality of schooling and the availability of interventions and support as well as factors that may be partly or totally outside the influence of the school system, such as, family environment (including parental income, educational attainment and support for the child), student commitment, and the proximity of the school and other educational facilities to students’ homes (ACARA, 2015).</t>
+    <t xml:space="preserve">Outcomes for students can be affected by the quality of schooling and the availability of interventions and support as well as factors that may be partly or totally outside the influence of the school system, such as, family environment (including parental income, educational attainment and support for the child), student commitment, and the proximity of the school and other educational facilities to students’ homes (ACARA 2015).</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -155,29 +158,29 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2016.</t>
+      <t xml:space="preserve"> 2017.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">References</t>
   </si>
   <si>
-    <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority (ACARA), 2015, National Assessment Program—Literacy and Numeracy Achievement in Reading, Persuasive Writing, Language Conventions and Numeracy: National Report for 2015. ACARA, Sydney.</t>
+    <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority (ACARA), 2015, National Assessment Program—Literacy and Numeracy Achievement in Reading, Persuasive Writing, Language Conventions and Numeracy: National Report for 2015, ACARA, Sydney.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,150 +215,28 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -363,23 +244,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,57 +269,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,107 +291,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -574,25 +324,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -630,7 +380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2008</v>
       </c>
@@ -668,7 +418,7 @@
         <v>400.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2008</v>
       </c>
@@ -706,7 +456,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2008</v>
       </c>
@@ -744,7 +494,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2008</v>
       </c>
@@ -782,7 +532,7 @@
         <v>484.4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2008</v>
       </c>
@@ -820,7 +570,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2008</v>
       </c>
@@ -858,7 +608,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>2008</v>
       </c>
@@ -896,7 +646,7 @@
         <v>536.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2008</v>
       </c>
@@ -934,7 +684,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2008</v>
       </c>
@@ -972,7 +722,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1010,7 +760,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1048,7 +798,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1086,7 +836,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1124,7 +874,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1162,7 +912,7 @@
         <v>493.9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1200,7 +950,7 @@
         <v>541.1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1238,7 +988,7 @@
         <v>580.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1276,7 +1026,7 @@
         <v>414.3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1314,7 +1064,7 @@
         <v>487.4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1352,7 +1102,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1390,7 +1140,7 @@
         <v>573.7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1428,7 +1178,7 @@
         <v>415.7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1466,7 +1216,7 @@
         <v>488.1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1504,7 +1254,7 @@
         <v>540.2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1542,7 +1292,7 @@
         <v>579.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1580,7 +1330,7 @@
         <v>419.6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1618,7 +1368,7 @@
         <v>493.6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1656,7 +1406,7 @@
         <v>541.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1694,7 +1444,7 @@
         <v>574.8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2013</v>
       </c>
@@ -1732,7 +1482,7 @@
         <v>419.1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
@@ -1770,7 +1520,7 @@
         <v>502.3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2013</v>
       </c>
@@ -1808,7 +1558,7 @@
         <v>540.6</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2013</v>
       </c>
@@ -1846,7 +1596,7 @@
         <v>580.2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2014</v>
       </c>
@@ -1884,7 +1634,7 @@
         <v>418.3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2014</v>
       </c>
@@ -1922,7 +1672,7 @@
         <v>500.6</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>2014</v>
       </c>
@@ -1960,7 +1710,7 @@
         <v>546.1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>2014</v>
       </c>
@@ -1998,7 +1748,7 @@
         <v>580.4</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2036,7 +1786,7 @@
         <v>425.5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2074,7 +1824,7 @@
         <v>498.5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2112,7 +1862,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2150,7 +1900,7 @@
         <v>580.2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2188,7 +1938,7 @@
         <v>425.6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2226,7 +1976,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2264,7 +2014,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2302,7 +2052,7 @@
         <v>501.5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2340,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2378,7 +2128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2416,7 +2166,7 @@
         <v>540.8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2454,7 +2204,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2492,7 +2242,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2530,7 +2280,7 @@
         <v>580.8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2568,7 +2318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2604,6 +2354,462 @@
       </c>
       <c r="L54" s="0" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>435.4</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>419.8</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>416.7</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>424.1</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>443.7</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>431.3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.246079139051119</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0.241041298409127</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>0.300190681120648</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0.388912115584681</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.440781064045489</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0.721816668190502</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.781921964187974</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>3.0090868464174</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>0.141953373048733</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>514.6</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>502.8</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>494.3</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>499.1</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>429.9</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>505.7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0.210911136107986</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0.178462368235285</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>0.223239653856769</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0.306797403266779</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>0.350939485646575</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0.6644613365282</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>0.588697017268446</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>2.02942307418431</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>0.110979729048036</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>547.6</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>550.7</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>540.2</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>538.6</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>542.1</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>540.7</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>544.7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.279512827775376</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0.24088080847011</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>0.321120673371163</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>0.492584705623802</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>0.30117193529321</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0.754879351407661</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0.781156329364575</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>2.57853194142956</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>0.140500481448316</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>582.4</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>574.9</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>570.9</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>570.4</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>595.9</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>515.2</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>580.9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.243161094224924</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0.245290423861852</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0.283989052222037</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>0.420425681002015</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>0.446841900186244</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>0.652961044165212</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0.676390710672589</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>2.28759982253771</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>0.131744899715782</v>
       </c>
     </row>
   </sheetData>
@@ -2622,25 +2828,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2716,7 +2922,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2754,7 +2960,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2792,7 +2998,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2830,7 +3036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2868,7 +3074,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2906,7 +3112,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2944,7 +3150,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2982,7 +3188,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2008</v>
       </c>
@@ -3020,7 +3226,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2008</v>
       </c>
@@ -3058,7 +3264,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2008</v>
       </c>
@@ -3096,7 +3302,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2008</v>
       </c>
@@ -3134,7 +3340,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2009</v>
       </c>
@@ -3172,7 +3378,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2009</v>
       </c>
@@ -3210,7 +3416,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2009</v>
       </c>
@@ -3248,7 +3454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2009</v>
       </c>
@@ -3286,7 +3492,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2010</v>
       </c>
@@ -3324,7 +3530,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2010</v>
       </c>
@@ -3362,7 +3568,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>2010</v>
       </c>
@@ -3400,7 +3606,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>2010</v>
       </c>
@@ -3438,7 +3644,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>2011</v>
       </c>
@@ -3476,7 +3682,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2011</v>
       </c>
@@ -3514,7 +3720,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2011</v>
       </c>
@@ -3552,7 +3758,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>2011</v>
       </c>
@@ -3590,7 +3796,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2012</v>
       </c>
@@ -3628,7 +3834,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2012</v>
       </c>
@@ -3666,7 +3872,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2012</v>
       </c>
@@ -3704,7 +3910,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2012</v>
       </c>
@@ -3742,7 +3948,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2013</v>
       </c>
@@ -3780,7 +3986,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
@@ -3818,7 +4024,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2013</v>
       </c>
@@ -3856,7 +4062,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2013</v>
       </c>
@@ -3894,7 +4100,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2014</v>
       </c>
@@ -3932,7 +4138,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2014</v>
       </c>
@@ -3970,7 +4176,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>2014</v>
       </c>
@@ -4008,7 +4214,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>2014</v>
       </c>
@@ -4046,7 +4252,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2015</v>
       </c>
@@ -4084,7 +4290,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>2015</v>
       </c>
@@ -4122,7 +4328,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>2015</v>
       </c>
@@ -4160,7 +4366,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>2015</v>
       </c>
@@ -4198,7 +4404,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4236,7 +4442,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4274,7 +4480,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4312,7 +4518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4350,7 +4556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4388,7 +4594,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4426,7 +4632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4464,7 +4670,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4502,7 +4708,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4540,7 +4746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4578,7 +4784,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4616,7 +4822,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>2016</v>
       </c>
@@ -4652,6 +4858,462 @@
       </c>
       <c r="L54" s="0" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>93.9</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.160273533497168</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0.213028844105492</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>0.213698044662891</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0.326008997848341</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.438413818803569</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0.486423382912487</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.587054905644266</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>4.32857426698078</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>0.1075245693641</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>92.1</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0.162313069448352</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0.214371462870863</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>0.216417425931136</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0.384024577572965</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>0.49857076381041</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0.718597298074159</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>0.587054905644266</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>4.98304277979413</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>0.108669665949447</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>93.9</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.269949249541086</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0.322573708092299</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>0.326008997848341</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>0.54919707387799</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>0.43560647311219</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0.822025910256691</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0.742500742500743</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>7.66072194643623</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>0.162831089882762</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>89.1</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>93.9</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.328457563282824</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0.388198757763975</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0.44951901465432</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>0.605420161592145</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>1.25976316452507</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>1.1504037917309</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0.869357327595575</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>7.6997262319562</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>0.222553579774331</v>
       </c>
     </row>
   </sheetData>
@@ -4670,25 +5332,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -4726,7 +5388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4764,7 +5426,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4802,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4840,7 +5502,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4878,7 +5540,7 @@
         <v>475.9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4916,7 +5578,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4954,7 +5616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>2008</v>
       </c>
@@ -4992,7 +5654,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2008</v>
       </c>
@@ -5030,7 +5692,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2008</v>
       </c>
@@ -5068,7 +5730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2008</v>
       </c>
@@ -5106,7 +5768,7 @@
         <v>582.2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2008</v>
       </c>
@@ -5144,7 +5806,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2008</v>
       </c>
@@ -5182,7 +5844,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2009</v>
       </c>
@@ -5220,7 +5882,7 @@
         <v>393.9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2009</v>
       </c>
@@ -5258,7 +5920,7 @@
         <v>486.8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2009</v>
       </c>
@@ -5296,7 +5958,7 @@
         <v>543.6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2009</v>
       </c>
@@ -5334,7 +5996,7 @@
         <v>589.1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2010</v>
       </c>
@@ -5372,7 +6034,7 @@
         <v>395.4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2010</v>
       </c>
@@ -5410,7 +6072,7 @@
         <v>488.8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>2010</v>
       </c>
@@ -5448,7 +6110,7 @@
         <v>547.8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>2010</v>
       </c>
@@ -5486,7 +6148,7 @@
         <v>585.1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>2011</v>
       </c>
@@ -5524,7 +6186,7 @@
         <v>398.1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2011</v>
       </c>
@@ -5562,7 +6224,7 @@
         <v>487.8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2011</v>
       </c>
@@ -5600,7 +6262,7 @@
         <v>544.6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>2011</v>
       </c>
@@ -5638,7 +6300,7 @@
         <v>583.4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2012</v>
       </c>
@@ -5676,7 +6338,7 @@
         <v>395.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2012</v>
       </c>
@@ -5714,7 +6376,7 @@
         <v>488.7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2012</v>
       </c>
@@ -5752,7 +6414,7 @@
         <v>538.1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2012</v>
       </c>
@@ -5790,7 +6452,7 @@
         <v>584.2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2013</v>
       </c>
@@ -5828,7 +6490,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
@@ -5866,7 +6528,7 @@
         <v>485.8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2013</v>
       </c>
@@ -5904,7 +6566,7 @@
         <v>542.1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2013</v>
       </c>
@@ -5942,7 +6604,7 @@
         <v>583.6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2014</v>
       </c>
@@ -5980,7 +6642,7 @@
         <v>401.8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2014</v>
       </c>
@@ -6018,7 +6680,7 @@
         <v>487.6</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>2014</v>
       </c>
@@ -6056,7 +6718,7 @@
         <v>545.9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>2014</v>
       </c>
@@ -6094,7 +6756,7 @@
         <v>587.8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2015</v>
       </c>
@@ -6132,7 +6794,7 @@
         <v>397.8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>2015</v>
       </c>
@@ -6170,7 +6832,7 @@
         <v>492.5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>2015</v>
       </c>
@@ -6208,7 +6870,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>2015</v>
       </c>
@@ -6246,7 +6908,7 @@
         <v>591.7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6284,7 +6946,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6322,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6360,7 +7022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6398,7 +7060,7 @@
         <v>493.1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6414,8 +7076,8 @@
       <c r="E47" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="F47" s="0" t="n">
-        <v>3.1</v>
+      <c r="F47" s="1" t="n">
+        <v>2.1</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>2.8</v>
@@ -6436,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6453,7 +7115,7 @@
         <v>0.2</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>0.3</v>
@@ -6474,7 +7136,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6512,7 +7174,7 @@
         <v>549.7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6550,7 +7212,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6588,7 +7250,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6626,7 +7288,7 @@
         <v>588.9</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6664,7 +7326,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6700,6 +7362,462 @@
       </c>
       <c r="L54" s="0" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>414.9</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>420.1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>401.8</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>418.1</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>341.3</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>409.4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.233643710557252</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0.230751667484418</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>0.27907731963994</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0.342418846733324</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.430937668130984</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0.596804177121321</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.707769355051277</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>2.07788946226015</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>0.124622394145738</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>498.3</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>501.7</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>488.6</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>481.3</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>432.1</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>493.8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0.194538983564528</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0.162712085033336</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>0.197672870126844</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0.281938399592338</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>0.310186967868909</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0.551228178784499</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>0.502512562814071</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>1.39329047981146</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>0.103322009241121</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>558.4</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>559.7</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>549.3</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>551.3</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>538.9</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>558.5</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>489</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>553.9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.328928132857728</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0.273470117008747</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>0.334377333675141</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>0.536764678663049</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>0.328256302521008</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0.710063205092763</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0.776496811795443</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>2.07629063895497</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>0.156589084451257</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>593.3</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>595.3</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>578.2</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>573.2</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>595.9</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>591.9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.280612244897959</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0.283781134230196</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0.279085993371708</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>0.445667936248916</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>0.467672368151688</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>0.587464574105986</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0.744885972512851</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>1.38504155124654</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>0.14653605993842</v>
       </c>
     </row>
   </sheetData>
@@ -6718,25 +7836,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -6774,1980 +7892,2436 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <v>96.9</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>93.8</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>96.7</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="4" t="n">
         <v>96.4</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="4" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="4" t="n">
         <v>5.6</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.103199174406605</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.103626943005181</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.326086956521739</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.317460317460317</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.479744136460554</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.31023784901758</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="4" t="n">
         <v>0.622406639004149</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="4" t="n">
         <v>3.63636363636364</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="4" t="n">
         <v>0.105263157894737</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <v>94.4</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="4" t="n">
         <v>90.4</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4" t="n">
         <v>91.1</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>90.5</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>92.1</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="4" t="n">
         <v>94.9</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="4" t="n">
         <v>69.1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="4" t="n">
         <v>92.7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="4" t="n">
         <v>5.9</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="4" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4" t="n">
         <v>0.158898305084746</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.158562367864693</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4" t="n">
         <v>0.331858407079646</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="4" t="n">
         <v>0.439077936333699</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.552486187845304</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.651465798045603</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="4" t="n">
         <v>0.632244467860906</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="4" t="n">
         <v>4.26917510853835</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="4" t="n">
         <v>0.107874865156419</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4" t="n">
         <v>94.9</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="4" t="n">
         <v>95.2</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="4" t="n">
         <v>97.1</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="4" t="n">
         <v>75.9</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="4" t="n">
         <v>95.4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="4" t="n">
         <v>1.3</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="4" t="n">
         <v>7.2</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="4" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.155440414507772</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="4" t="n">
         <v>0.210748155953635</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="4" t="n">
         <v>0.316789862724393</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.423280423280423</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.682773109243697</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="4" t="n">
         <v>0.617919670442843</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="4" t="n">
         <v>4.74308300395257</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="4" t="n">
         <v>0.10482180293501</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="4" t="n">
         <v>95.2</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="4" t="n">
         <v>92.4</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="4" t="n">
         <v>92.3</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="4" t="n">
         <v>92.3</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="4" t="n">
         <v>96.6</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="4" t="n">
         <v>74.1</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="4" t="n">
         <v>93.6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="4" t="n">
         <v>1.8</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="4" t="n">
         <v>1.8</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="4" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="4" t="n">
         <v>0.211193241816262</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="4" t="n">
         <v>0.210084033613445</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="4" t="n">
         <v>0.432900432900433</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="4" t="n">
         <v>0.595882990249188</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.978260869565217</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.975081256771398</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="4" t="n">
         <v>0.62111801242236</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="4" t="n">
         <v>5.06072874493927</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="4" t="n">
         <v>0.16025641025641</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>2009</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="4" t="n">
         <v>92.3</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="4" t="n">
         <v>92.3</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="4" t="n">
         <v>92.7</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="4" t="n">
         <v>70.4</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="4" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>2009</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="4" t="n">
         <v>92.6</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="4" t="n">
         <v>92.8</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="4" t="n">
         <v>93.3</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="4" t="n">
         <v>93.2</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="4" t="n">
         <v>73.5</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="4" t="n">
         <v>94.2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>2009</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="4" t="n">
         <v>95.1</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="4" t="n">
         <v>93.6</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>94.2</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="4" t="n">
         <v>95.7</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="4" t="n">
         <v>74.8</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="4" t="n">
         <v>94.8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>2009</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="4" t="n">
         <v>96.3</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="4" t="n">
         <v>93.5</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="4" t="n">
         <v>93.7</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="4" t="n">
         <v>76.2</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="4" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>2010</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="4" t="n">
         <v>93.4</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="4" t="n">
         <v>93.5</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4" t="n">
         <v>93.2</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="4" t="n">
         <v>96.6</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="4" t="n">
         <v>72.4</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="4" t="n">
         <v>94.3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>2010</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="4" t="n">
         <v>95.7</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="4" t="n">
         <v>92.6</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="4" t="n">
         <v>92.3</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="4" t="n">
         <v>92.2</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="4" t="n">
         <v>93.2</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="4" t="n">
         <v>69.2</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="4" t="n">
         <v>93.7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>2010</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="4" t="n">
         <v>94.9</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="4" t="n">
         <v>96.1</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="4" t="n">
         <v>95.2</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="4" t="n">
         <v>94.2</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="4" t="n">
         <v>96.8</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="4" t="n">
         <v>72.4</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="L21" s="4" t="n">
         <v>95.1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>2010</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="4" t="n">
         <v>93.1</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="4" t="n">
         <v>93.1</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="4" t="n">
         <v>92.1</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="4" t="n">
         <v>92.4</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="4" t="n">
         <v>70.5</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="4" t="n">
         <v>93.1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>2011</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="4" t="n">
         <v>96.2</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="4" t="n">
         <v>95.2</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="4" t="n">
         <v>94.1</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="4" t="n">
         <v>79.1</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="4" t="n">
         <v>95.6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>2011</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="4" t="n">
         <v>93.4</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="4" t="n">
         <v>93.4</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="4" t="n">
         <v>93.1</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="4" t="n">
         <v>72.5</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="L24" s="4" t="n">
         <v>94.4</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>2011</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="4" t="n">
         <v>94.4</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="4" t="n">
         <v>92.6</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="4" t="n">
         <v>95.7</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="4" t="n">
         <v>71.7</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="4" t="n">
         <v>94.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>2011</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="4" t="n">
         <v>92.8</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="4" t="n">
         <v>92.1</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="4" t="n">
         <v>91.7</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="4" t="n">
         <v>90.9</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="4" t="n">
         <v>72.6</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="4" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="4" t="n">
         <v>95.1</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="4" t="n">
         <v>92.7</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="4" t="n">
         <v>92.5</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="4" t="n">
         <v>91.9</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="4" t="n">
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="4" t="n">
         <v>91.7</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="4" t="n">
         <v>91.7</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="4" t="n">
         <v>91.7</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="4" t="n">
         <v>92.6</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="4" t="n">
         <v>66.5</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="4" t="n">
         <v>93.3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="4" t="n">
         <v>93.8</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="4" t="n">
         <v>93.8</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="4" t="n">
         <v>93.5</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="4" t="n">
         <v>93.2</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="4" t="n">
         <v>70.5</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="4" t="n">
         <v>93.8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="4" t="n">
         <v>93.7</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="4" t="n">
         <v>93.7</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="4" t="n">
         <v>93.1</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="4" t="n">
         <v>92.9</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="4" t="n">
         <v>92.4</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="4" t="n">
         <v>93.7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="4" t="n">
         <v>96.4</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="4" t="n">
         <v>96.2</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4" t="n">
         <v>94.4</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="4" t="n">
         <v>96.6</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="4" t="n">
         <v>75.7</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="4" t="n">
         <v>95.7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="4" t="n">
         <v>94.4</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="4" t="n">
         <v>93.6</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="4" t="n">
         <v>92.7</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="4" t="n">
         <v>92.4</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="4" t="n">
         <v>69.7</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="4" t="n">
         <v>93.4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="4" t="n">
         <v>95.1</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="4" t="n">
         <v>95.7</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="4" t="n">
         <v>95.1</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="4" t="n">
         <v>72.3</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="4" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="4" t="n">
         <v>90.4</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="4" t="n">
         <v>92.2</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="4" t="n">
         <v>90.1</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="4" t="n">
         <v>90.8</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="4" t="n">
         <v>90.1</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="4" t="n">
         <v>92.9</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="4" t="n">
         <v>68.2</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="4" t="n">
         <v>90.6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="4" t="n">
         <v>94.6</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="4" t="n">
         <v>93.8</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="4" t="n">
         <v>93.2</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="4" t="n">
         <v>94.6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="4" t="n">
         <v>94.3</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="4" t="n">
         <v>93.1</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="4" t="n">
         <v>92.2</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="4" t="n">
         <v>91.8</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="4" t="n">
         <v>92.6</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="4" t="n">
         <v>95.9</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="4" t="n">
         <v>68.2</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="4" t="n">
         <v>93.5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="4" t="n">
         <v>96.3</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="4" t="n">
         <v>74.4</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="4" t="n">
         <v>95.1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="4" t="n">
         <v>94.5</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="4" t="n">
         <v>94.2</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="4" t="n">
         <v>92.6</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="4" t="n">
         <v>93.5</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="4" t="n">
         <v>94.9</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="4" t="n">
         <v>74.2</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="4" t="n">
         <v>94.1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="4" t="n">
         <v>93.7</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="4" t="n">
         <v>92.8</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="4" t="n">
         <v>94.4</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="4" t="n">
         <v>95.5</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="4" t="n">
         <v>94.3</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="4" t="n">
         <v>94.9</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="4" t="n">
         <v>72.7</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="4" t="n">
         <v>95.1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="4" t="n">
         <v>96.1</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="4" t="n">
         <v>96.3</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="4" t="n">
         <v>96.2</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="4" t="n">
         <v>96.7</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="4" t="n">
         <v>77.4</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="L41" s="4" t="n">
         <v>95.9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="4" t="n">
         <v>96.3</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="4" t="n">
         <v>96.4</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="4" t="n">
         <v>95.2</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="K42" s="4" t="n">
         <v>79.1</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="4" t="n">
         <v>95.7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="4" t="n">
         <v>95.9</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="4" t="n">
         <v>95.9</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="4" t="n">
         <v>94.2</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="4" t="n">
         <v>96.9</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="4" t="n">
         <v>77.9</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="4" t="n">
         <v>95.5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="4" t="n">
         <v>5.4</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="4" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="4" t="n">
         <v>0.156412930135558</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="4" t="n">
         <v>0.208550573514077</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="4" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="4" t="n">
         <v>0.263157894736842</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="4" t="n">
         <v>0.371549893842887</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="4" t="n">
         <v>0.46972860125261</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="4" t="n">
         <v>0.412796697626419</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="4" t="n">
         <v>3.46598202824133</v>
       </c>
-      <c r="L45" s="2" t="n">
+      <c r="L45" s="4" t="n">
         <v>0.104712041884817</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="4" t="n">
         <v>94.7</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="4" t="n">
         <v>93.4</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="4" t="n">
         <v>92.8</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J46" s="4" t="n">
         <v>96.3</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K46" s="4" t="n">
         <v>73.5</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L46" s="4" t="n">
         <v>94.3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="J47" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="4" t="n">
         <v>6.2</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="4" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="4" t="n">
         <v>0.158394931362196</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="4" t="n">
         <v>0.209863588667366</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="4" t="n">
         <v>0.263991552270327</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="4" t="n">
         <v>0.374732334047109</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="4" t="n">
         <v>0.484913793103448</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="4" t="n">
         <v>0.531914893617021</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="4" t="n">
         <v>0.519210799584631</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="4" t="n">
         <v>4.21768707482993</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="4" t="n">
         <v>0.106044538706257</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="4" t="n">
         <v>96.1</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="4" t="n">
         <v>95.6</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="4" t="n">
         <v>95.1</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="4" t="n">
         <v>95.2</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="4" t="n">
         <v>96.7</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="4" t="n">
         <v>74.3</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="4" t="n">
         <v>95.5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="4" t="n">
         <v>8.2</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="4" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="4" t="n">
         <v>0.208768267223382</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="4" t="n">
         <v>0.260145681581686</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="4" t="n">
         <v>0.313807531380753</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="4" t="n">
         <v>0.420609884332282</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="4" t="n">
         <v>0.367647058823529</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="4" t="n">
         <v>0.629590766002099</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="4" t="n">
         <v>0.62047569803516</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="4" t="n">
         <v>5.51816958277254</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="4" t="n">
         <v>0.104712041884817</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="4" t="n">
         <v>95.3</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="4" t="n">
         <v>95.9</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="4" t="n">
         <v>94.4</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="4" t="n">
         <v>95.7</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J52" s="4" t="n">
         <v>96.4</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="4" t="n">
         <v>75.2</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="4" t="n">
         <v>95.2</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="4" t="n">
         <v>8.4</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="4" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="4" t="n">
         <v>0.209643605870021</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="4" t="n">
         <v>0.314465408805031</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="4" t="n">
         <v>0.314795383001049</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="4" t="n">
         <v>0.364963503649635</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="4" t="n">
         <v>0.741525423728813</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="4" t="n">
         <v>0.574712643678161</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="4" t="n">
         <v>0.829875518672199</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K54" s="4" t="n">
         <v>5.58510638297872</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="4" t="n">
         <v>0.157563025210084</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>0.159438775510204</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>0.212585034013605</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>0.213251444778538</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>0.26824609970171</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>0.43888523151196</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>0.424286138571853</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>0.527615389485681</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>3.87835343836093</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>0.106961023403072</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>0.159771633079119</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>0.212585034013605</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>0.212806707667426</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>0.322234156820623</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>0.437474024979767</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>0.537056928034372</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>0.529806938351665</v>
+      </c>
+      <c r="K60" s="4" t="n">
+        <v>4.10902616079989</v>
+      </c>
+      <c r="L60" s="4" t="n">
+        <v>0.106961023403072</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="K61" s="4" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="L61" s="4" t="n">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J62" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K62" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L62" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>0.213028844105492</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>0.265731292517007</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>0.26740255850768</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>0.430098277456399</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>0.376335992774349</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>0.645147416184598</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>0.631831680040437</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>5.85254344652841</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>0.160441535104608</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K64" s="4" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="L64" s="4" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K65" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>0.211702938436785</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>0.320547066994337</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>0.265731292517007</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>0.370480142264375</v>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>1.0279827731729</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>0.641766140418431</v>
+      </c>
+      <c r="J66" s="4" t="n">
+        <v>0.689464975179261</v>
+      </c>
+      <c r="K66" s="4" t="n">
+        <v>4.20981200361918</v>
+      </c>
+      <c r="L66" s="4" t="n">
+        <v>0.159771633079119</v>
       </c>
     </row>
   </sheetData>
@@ -8766,87 +10340,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="6" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="79.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
+++ b/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mean reading" sheetId="1" state="visible" r:id="rId2"/>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The National Assessment Program—Literacy and Numeracy (NAPLAN) measures proportions of children in Years 3, 5, 7 and 9 meeting national minimum standards (NMS) and their average scores. Tracking these measures over time provides an indication of the performance of students, schools, jurisdictions and the system as a whole. Results for the Northern Territory may reflect, in part, a high proportion of disadvantaged Indigenous students. In the Northern Territory, Indigenous children made up 44 per cent of the 5–19 year old population.</t>
+    <t xml:space="preserve">The National Assessment Program—Literacy and Numeracy (NAPLAN) measures proportions of children in Years 3, 5, 7 and 9 meeting national minimum standards (NMS) and their average scores. Tracking these measures over time provides an indication of the performance of students, schools, jurisdictions and the system as a whole. Results for the Northern Territory may reflect, in part, a high proportion of disadvantaged Indigenous students, smaller test populations and higher volatility in results. In the Northern Territory, Indigenous children made up 44 per cent of the 5–19 year old population.</t>
   </si>
   <si>
     <t xml:space="preserve">Nationally, between 2008 and 2017, at the national level, four areas showed improvements in the proportion of students at or above the national minimum standard. The four areas with significant improvement were Year 3 and 5 reading, and Years 5 and 9 numeracy.</t>
@@ -270,11 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,10 +284,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +318,7 @@
   </sheetPr>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2357,7 +2349,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -2395,7 +2387,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -2433,7 +2425,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -2442,36 +2434,36 @@
       <c r="C57" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="1" t="n">
         <v>0.246079139051119</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="1" t="n">
         <v>0.241041298409127</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="1" t="n">
         <v>0.300190681120648</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="1" t="n">
         <v>0.388912115584681</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="1" t="n">
         <v>0.440781064045489</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="1" t="n">
         <v>0.721816668190502</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="1" t="n">
         <v>0.781921964187974</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="1" t="n">
         <v>3.0090868464174</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="1" t="n">
         <v>0.141953373048733</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -2509,7 +2501,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -2547,7 +2539,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -2556,36 +2548,36 @@
       <c r="C60" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="1" t="n">
         <v>0.210911136107986</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="1" t="n">
         <v>0.178462368235285</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="1" t="n">
         <v>0.223239653856769</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.306797403266779</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="1" t="n">
         <v>0.350939485646575</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="1" t="n">
         <v>0.6644613365282</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="1" t="n">
         <v>0.588697017268446</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="1" t="n">
         <v>2.02942307418431</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="1" t="n">
         <v>0.110979729048036</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -2623,7 +2615,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -2661,7 +2653,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -2670,36 +2662,36 @@
       <c r="C63" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="1" t="n">
         <v>0.279512827775376</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="1" t="n">
         <v>0.24088080847011</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="1" t="n">
         <v>0.321120673371163</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="1" t="n">
         <v>0.492584705623802</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="1" t="n">
         <v>0.30117193529321</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="1" t="n">
         <v>0.754879351407661</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="1" t="n">
         <v>0.781156329364575</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="1" t="n">
         <v>2.57853194142956</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="1" t="n">
         <v>0.140500481448316</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -2737,7 +2729,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -2775,7 +2767,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -2784,31 +2776,31 @@
       <c r="C66" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="1" t="n">
         <v>0.243161094224924</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="1" t="n">
         <v>0.245290423861852</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="1" t="n">
         <v>0.283989052222037</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="1" t="n">
         <v>0.420425681002015</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="1" t="n">
         <v>0.446841900186244</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="1" t="n">
         <v>0.652961044165212</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="1" t="n">
         <v>0.676390710672589</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="1" t="n">
         <v>2.28759982253771</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="1" t="n">
         <v>0.131744899715782</v>
       </c>
     </row>
@@ -4861,7 +4853,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -4899,7 +4891,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -4937,7 +4929,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -4946,36 +4938,36 @@
       <c r="C57" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="1" t="n">
         <v>0.160273533497168</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="1" t="n">
         <v>0.213028844105492</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="1" t="n">
         <v>0.213698044662891</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="1" t="n">
         <v>0.326008997848341</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="1" t="n">
         <v>0.438413818803569</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="1" t="n">
         <v>0.486423382912487</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="1" t="n">
         <v>0.587054905644266</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="1" t="n">
         <v>4.32857426698078</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="1" t="n">
         <v>0.1075245693641</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -5013,7 +5005,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -5051,7 +5043,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -5060,36 +5052,36 @@
       <c r="C60" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="1" t="n">
         <v>0.162313069448352</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="1" t="n">
         <v>0.214371462870863</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="1" t="n">
         <v>0.216417425931136</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.384024577572965</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="1" t="n">
         <v>0.49857076381041</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="1" t="n">
         <v>0.718597298074159</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="1" t="n">
         <v>0.587054905644266</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="1" t="n">
         <v>4.98304277979413</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="1" t="n">
         <v>0.108669665949447</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -5127,7 +5119,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -5165,7 +5157,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -5174,36 +5166,36 @@
       <c r="C63" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="1" t="n">
         <v>0.269949249541086</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="1" t="n">
         <v>0.322573708092299</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="1" t="n">
         <v>0.326008997848341</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="1" t="n">
         <v>0.54919707387799</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="1" t="n">
         <v>0.43560647311219</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="1" t="n">
         <v>0.822025910256691</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="1" t="n">
         <v>0.742500742500743</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="1" t="n">
         <v>7.66072194643623</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="1" t="n">
         <v>0.162831089882762</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -5241,7 +5233,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -5279,7 +5271,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -5288,31 +5280,31 @@
       <c r="C66" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="1" t="n">
         <v>0.328457563282824</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="1" t="n">
         <v>0.388198757763975</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="1" t="n">
         <v>0.44951901465432</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="1" t="n">
         <v>0.605420161592145</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="1" t="n">
         <v>1.25976316452507</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="1" t="n">
         <v>1.1504037917309</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="1" t="n">
         <v>0.869357327595575</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="1" t="n">
         <v>7.6997262319562</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="1" t="n">
         <v>0.222553579774331</v>
       </c>
     </row>
@@ -7076,7 +7068,7 @@
       <c r="E47" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="0" t="n">
         <v>2.1</v>
       </c>
       <c r="G47" s="0" t="n">
@@ -7365,7 +7357,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -7403,7 +7395,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -7441,7 +7433,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -7450,36 +7442,36 @@
       <c r="C57" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="1" t="n">
         <v>0.233643710557252</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="1" t="n">
         <v>0.230751667484418</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="1" t="n">
         <v>0.27907731963994</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="1" t="n">
         <v>0.342418846733324</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="1" t="n">
         <v>0.430937668130984</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="1" t="n">
         <v>0.596804177121321</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="1" t="n">
         <v>0.707769355051277</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="1" t="n">
         <v>2.07788946226015</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="1" t="n">
         <v>0.124622394145738</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -7517,7 +7509,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -7555,7 +7547,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -7564,36 +7556,36 @@
       <c r="C60" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="1" t="n">
         <v>0.194538983564528</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="1" t="n">
         <v>0.162712085033336</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="1" t="n">
         <v>0.197672870126844</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.281938399592338</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="1" t="n">
         <v>0.310186967868909</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="1" t="n">
         <v>0.551228178784499</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="1" t="n">
         <v>0.502512562814071</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="1" t="n">
         <v>1.39329047981146</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="1" t="n">
         <v>0.103322009241121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -7631,7 +7623,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -7669,7 +7661,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -7678,36 +7670,36 @@
       <c r="C63" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="1" t="n">
         <v>0.328928132857728</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="1" t="n">
         <v>0.273470117008747</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="1" t="n">
         <v>0.334377333675141</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="1" t="n">
         <v>0.536764678663049</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="1" t="n">
         <v>0.328256302521008</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="1" t="n">
         <v>0.710063205092763</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="1" t="n">
         <v>0.776496811795443</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="1" t="n">
         <v>2.07629063895497</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="1" t="n">
         <v>0.156589084451257</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -7745,7 +7737,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -7783,7 +7775,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -7792,31 +7784,31 @@
       <c r="C66" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="1" t="n">
         <v>0.280612244897959</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="1" t="n">
         <v>0.283781134230196</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="1" t="n">
         <v>0.279085993371708</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="1" t="n">
         <v>0.445667936248916</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="1" t="n">
         <v>0.467672368151688</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="1" t="n">
         <v>0.587464574105986</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="1" t="n">
         <v>0.744885972512851</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="1" t="n">
         <v>1.38504155124654</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="1" t="n">
         <v>0.14653605993842</v>
       </c>
     </row>
@@ -7893,2434 +7885,2434 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>96.9</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <v>93.8</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="3" t="n">
         <v>96.7</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="3" t="n">
         <v>77</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="3" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="3" t="n">
         <v>5.6</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.103199174406605</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.103626943005181</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.326086956521739</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="3" t="n">
         <v>0.317460317460317</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <v>0.479744136460554</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="3" t="n">
         <v>0.31023784901758</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="3" t="n">
         <v>0.622406639004149</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="3" t="n">
         <v>3.63636363636364</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="3" t="n">
         <v>0.105263157894737</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>94.4</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <v>90.4</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="3" t="n">
         <v>91.1</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <v>90.5</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="3" t="n">
         <v>92.1</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="3" t="n">
         <v>69.1</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="3" t="n">
         <v>92.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="3" t="n">
         <v>5.9</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.158898305084746</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3" t="n">
         <v>0.158562367864693</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.331858407079646</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3" t="n">
         <v>0.439077936333699</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="3" t="n">
         <v>0.552486187845304</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <v>0.651465798045603</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="3" t="n">
         <v>0.632244467860906</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="3" t="n">
         <v>4.26917510853835</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="3" t="n">
         <v>0.107874865156419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="3" t="n">
         <v>97.1</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="3" t="n">
         <v>75.9</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="3" t="n">
         <v>95.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="3" t="n">
         <v>0.155440414507772</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.210748155953635</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="3" t="n">
         <v>0.316789862724393</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="3" t="n">
         <v>0.423280423280423</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="3" t="n">
         <v>0.682773109243697</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="3" t="n">
         <v>0.617919670442843</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="3" t="n">
         <v>4.74308300395257</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="3" t="n">
         <v>0.10482180293501</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="3" t="n">
         <v>92.4</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="3" t="n">
         <v>96.6</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="3" t="n">
         <v>74.1</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="3" t="n">
         <v>93.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.1</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="3" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.211193241816262</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="3" t="n">
         <v>0.210084033613445</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.432900432900433</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="3" t="n">
         <v>0.595882990249188</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="3" t="n">
         <v>0.978260869565217</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="3" t="n">
         <v>0.975081256771398</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="3" t="n">
         <v>0.62111801242236</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="3" t="n">
         <v>5.06072874493927</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="3" t="n">
         <v>0.16025641025641</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="3" t="n">
         <v>95.6</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="3" t="n">
         <v>92.7</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="3" t="n">
         <v>93.9</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="3" t="n">
         <v>70.4</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="3" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="3" t="n">
         <v>92.6</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3" t="n">
         <v>92.8</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="3" t="n">
         <v>93.3</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="3" t="n">
         <v>93.2</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="3" t="n">
         <v>73.5</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="3" t="n">
         <v>94.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="3" t="n">
         <v>93.6</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="3" t="n">
         <v>94.2</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="J17" s="4" t="n">
+      <c r="J17" s="3" t="n">
         <v>95.7</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="3" t="n">
         <v>74.8</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="3" t="n">
         <v>94.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="3" t="n">
         <v>96.3</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="3" t="n">
         <v>93.5</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="3" t="n">
         <v>93.7</v>
       </c>
-      <c r="J18" s="4" t="n">
+      <c r="J18" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="3" t="n">
         <v>76.2</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="3" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="3" t="n">
         <v>93.4</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="3" t="n">
         <v>93.5</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="3" t="n">
         <v>93.2</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="3" t="n">
         <v>96.6</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="3" t="n">
         <v>72.4</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="3" t="n">
         <v>94.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="3" t="n">
         <v>95.7</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="3" t="n">
         <v>92.6</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <v>92.2</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="3" t="n">
         <v>93.2</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="3" t="n">
         <v>69.2</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="3" t="n">
         <v>93.7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="3" t="n">
         <v>96.1</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="3" t="n">
         <v>94.2</v>
       </c>
-      <c r="J21" s="4" t="n">
+      <c r="J21" s="3" t="n">
         <v>96.8</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="3" t="n">
         <v>72.4</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="3" t="n">
         <v>95.1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="3" t="n">
         <v>93.1</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="3" t="n">
         <v>93.1</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="3" t="n">
         <v>92.1</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="3" t="n">
         <v>92.4</v>
       </c>
-      <c r="J22" s="4" t="n">
+      <c r="J22" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="3" t="n">
         <v>70.5</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="3" t="n">
         <v>93.1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="3" t="n">
         <v>96.2</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="3" t="n">
         <v>94.1</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="J23" s="4" t="n">
+      <c r="J23" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="3" t="n">
         <v>79.1</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="3" t="n">
         <v>95.6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="3" t="n">
         <v>95.6</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="3" t="n">
         <v>93.4</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3" t="n">
         <v>93.4</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="3" t="n">
         <v>93.1</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="3" t="n">
         <v>93.9</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="3" t="n">
         <v>72.5</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="3" t="n">
         <v>94.4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="3" t="n">
         <v>94.4</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="3" t="n">
         <v>93.9</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="3" t="n">
         <v>92.6</v>
       </c>
-      <c r="J25" s="4" t="n">
+      <c r="J25" s="3" t="n">
         <v>95.7</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="3" t="n">
         <v>71.7</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="3" t="n">
         <v>94.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="3" t="n">
         <v>92.8</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="3" t="n">
         <v>92.1</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="3" t="n">
         <v>91.7</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="3" t="n">
         <v>90.9</v>
       </c>
-      <c r="J26" s="4" t="n">
+      <c r="J26" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="3" t="n">
         <v>72.6</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="3" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="3" t="n">
         <v>95.6</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="3" t="n">
         <v>92.7</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="3" t="n">
         <v>92.5</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="3" t="n">
         <v>91.9</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="3" t="n">
         <v>93.9</v>
       </c>
-      <c r="J27" s="4" t="n">
+      <c r="J27" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="3" t="n">
         <v>93.9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="3" t="n">
         <v>91.7</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="3" t="n">
         <v>91.7</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="3" t="n">
         <v>91.7</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="3" t="n">
         <v>92.6</v>
       </c>
-      <c r="J28" s="4" t="n">
+      <c r="J28" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="3" t="n">
         <v>66.5</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="3" t="n">
         <v>93.3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="3" t="n">
         <v>93.8</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="3" t="n">
         <v>93.8</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="3" t="n">
         <v>93.9</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="3" t="n">
         <v>93.5</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="3" t="n">
         <v>93.2</v>
       </c>
-      <c r="J29" s="4" t="n">
+      <c r="J29" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="3" t="n">
         <v>70.5</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="3" t="n">
         <v>93.8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="3" t="n">
         <v>93.7</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="3" t="n">
         <v>93.7</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="3" t="n">
         <v>93.1</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="3" t="n">
         <v>92.9</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="3" t="n">
         <v>92.4</v>
       </c>
-      <c r="J30" s="4" t="n">
+      <c r="J30" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="3" t="n">
         <v>93.7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="3" t="n">
         <v>96.2</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="3" t="n">
         <v>94.4</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="J31" s="4" t="n">
+      <c r="J31" s="3" t="n">
         <v>96.6</v>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="3" t="n">
         <v>75.7</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="3" t="n">
         <v>95.7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="3" t="n">
         <v>93.9</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="3" t="n">
         <v>94.4</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="3" t="n">
         <v>93.6</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="3" t="n">
         <v>92.7</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="3" t="n">
         <v>92.4</v>
       </c>
-      <c r="J32" s="4" t="n">
+      <c r="J32" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="3" t="n">
         <v>69.7</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="3" t="n">
         <v>93.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="3" t="n">
         <v>95.7</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="J33" s="4" t="n">
+      <c r="J33" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="3" t="n">
         <v>72.3</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="3" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="3" t="n">
         <v>90.4</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="3" t="n">
         <v>92.2</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="3" t="n">
         <v>90.1</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="3" t="n">
         <v>90.8</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="3" t="n">
         <v>90.1</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="J34" s="4" t="n">
+      <c r="J34" s="3" t="n">
         <v>92.9</v>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="3" t="n">
         <v>68.2</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="3" t="n">
         <v>90.6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="3" t="n">
         <v>94.6</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="3" t="n">
         <v>93.8</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="3" t="n">
         <v>93.2</v>
       </c>
-      <c r="I35" s="4" t="n">
+      <c r="I35" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="J35" s="4" t="n">
+      <c r="J35" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="3" t="n">
         <v>94.6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="3" t="n">
         <v>94.3</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="3" t="n">
         <v>93.1</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="3" t="n">
         <v>92.2</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="3" t="n">
         <v>91.8</v>
       </c>
-      <c r="I36" s="4" t="n">
+      <c r="I36" s="3" t="n">
         <v>92.6</v>
       </c>
-      <c r="J36" s="4" t="n">
+      <c r="J36" s="3" t="n">
         <v>95.9</v>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="3" t="n">
         <v>68.2</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="3" t="n">
         <v>93.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="I37" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="J37" s="4" t="n">
+      <c r="J37" s="3" t="n">
         <v>96.3</v>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="3" t="n">
         <v>74.4</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="3" t="n">
         <v>95.1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="3" t="n">
         <v>94.5</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="3" t="n">
         <v>94.8</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="3" t="n">
         <v>94.2</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="3" t="n">
         <v>92.6</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="I38" s="3" t="n">
         <v>93.5</v>
       </c>
-      <c r="J38" s="4" t="n">
+      <c r="J38" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="3" t="n">
         <v>74.2</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="3" t="n">
         <v>94.1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="3" t="n">
         <v>93.7</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="3" t="n">
         <v>92.8</v>
       </c>
-      <c r="I39" s="4" t="n">
+      <c r="I39" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="J39" s="4" t="n">
+      <c r="J39" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="3" t="n">
         <v>94.4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="3" t="n">
         <v>94.3</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="I40" s="4" t="n">
+      <c r="I40" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="J40" s="4" t="n">
+      <c r="J40" s="3" t="n">
         <v>96.5</v>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="3" t="n">
         <v>72.7</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="3" t="n">
         <v>95.1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="3" t="n">
         <v>96.1</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="3" t="n">
         <v>96.3</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="3" t="n">
         <v>96.2</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="3" t="n">
         <v>95.6</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="I41" s="4" t="n">
+      <c r="I41" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="J41" s="4" t="n">
+      <c r="J41" s="3" t="n">
         <v>96.7</v>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="3" t="n">
         <v>77.4</v>
       </c>
-      <c r="L41" s="4" t="n">
+      <c r="L41" s="3" t="n">
         <v>95.9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="3" t="n">
         <v>95.6</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="3" t="n">
         <v>96.3</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="I42" s="4" t="n">
+      <c r="I42" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="J42" s="4" t="n">
+      <c r="J42" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="3" t="n">
         <v>79.1</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="L42" s="3" t="n">
         <v>95.7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="3" t="n">
         <v>95.9</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="3" t="n">
         <v>95.9</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="3" t="n">
         <v>94.2</v>
       </c>
-      <c r="I43" s="4" t="n">
+      <c r="I43" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="J43" s="4" t="n">
+      <c r="J43" s="3" t="n">
         <v>96.9</v>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="3" t="n">
         <v>77.9</v>
       </c>
-      <c r="L43" s="4" t="n">
+      <c r="L43" s="3" t="n">
         <v>95.5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="I44" s="4" t="n">
+      <c r="I44" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="J44" s="4" t="n">
+      <c r="J44" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="3" t="n">
         <v>5.4</v>
       </c>
-      <c r="L44" s="4" t="n">
+      <c r="L44" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="3" t="n">
         <v>0.156412930135558</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="3" t="n">
         <v>0.208550573514077</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="3" t="n">
         <v>0.263157894736842</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="3" t="n">
         <v>0.371549893842887</v>
       </c>
-      <c r="I45" s="4" t="n">
+      <c r="I45" s="3" t="n">
         <v>0.46972860125261</v>
       </c>
-      <c r="J45" s="4" t="n">
+      <c r="J45" s="3" t="n">
         <v>0.412796697626419</v>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="3" t="n">
         <v>3.46598202824133</v>
       </c>
-      <c r="L45" s="4" t="n">
+      <c r="L45" s="3" t="n">
         <v>0.104712041884817</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="3" t="n">
         <v>94.7</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="3" t="n">
         <v>93.4</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="3" t="n">
         <v>92.8</v>
       </c>
-      <c r="I46" s="4" t="n">
+      <c r="I46" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="J46" s="4" t="n">
+      <c r="J46" s="3" t="n">
         <v>96.3</v>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="3" t="n">
         <v>73.5</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="3" t="n">
         <v>94.3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E47" s="4" t="n">
+      <c r="E47" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="G47" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="I47" s="4" t="n">
+      <c r="I47" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J47" s="4" t="n">
+      <c r="J47" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="K47" s="3" t="n">
         <v>6.2</v>
       </c>
-      <c r="L47" s="4" t="n">
+      <c r="L47" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="3" t="n">
         <v>0.158394931362196</v>
       </c>
-      <c r="E48" s="4" t="n">
+      <c r="E48" s="3" t="n">
         <v>0.209863588667366</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" s="3" t="n">
         <v>0.263991552270327</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="G48" s="3" t="n">
         <v>0.374732334047109</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="3" t="n">
         <v>0.484913793103448</v>
       </c>
-      <c r="I48" s="4" t="n">
+      <c r="I48" s="3" t="n">
         <v>0.531914893617021</v>
       </c>
-      <c r="J48" s="4" t="n">
+      <c r="J48" s="3" t="n">
         <v>0.519210799584631</v>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="K48" s="3" t="n">
         <v>4.21768707482993</v>
       </c>
-      <c r="L48" s="4" t="n">
+      <c r="L48" s="3" t="n">
         <v>0.106044538706257</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="E49" s="4" t="n">
+      <c r="E49" s="3" t="n">
         <v>96.1</v>
       </c>
-      <c r="F49" s="4" t="n">
+      <c r="F49" s="3" t="n">
         <v>95.6</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="G49" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="H49" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="I49" s="4" t="n">
+      <c r="I49" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="J49" s="4" t="n">
+      <c r="J49" s="3" t="n">
         <v>96.7</v>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="K49" s="3" t="n">
         <v>74.3</v>
       </c>
-      <c r="L49" s="4" t="n">
+      <c r="L49" s="3" t="n">
         <v>95.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E50" s="4" t="n">
+      <c r="E50" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="G50" s="4" t="n">
+      <c r="G50" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="I50" s="4" t="n">
+      <c r="I50" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="J50" s="4" t="n">
+      <c r="J50" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="K50" s="3" t="n">
         <v>8.2</v>
       </c>
-      <c r="L50" s="4" t="n">
+      <c r="L50" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="3" t="n">
         <v>0.208768267223382</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="3" t="n">
         <v>0.260145681581686</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="3" t="n">
         <v>0.313807531380753</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="3" t="n">
         <v>0.420609884332282</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="3" t="n">
         <v>0.367647058823529</v>
       </c>
-      <c r="I51" s="4" t="n">
+      <c r="I51" s="3" t="n">
         <v>0.629590766002099</v>
       </c>
-      <c r="J51" s="4" t="n">
+      <c r="J51" s="3" t="n">
         <v>0.62047569803516</v>
       </c>
-      <c r="K51" s="4" t="n">
+      <c r="K51" s="3" t="n">
         <v>5.51816958277254</v>
       </c>
-      <c r="L51" s="4" t="n">
+      <c r="L51" s="3" t="n">
         <v>0.104712041884817</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" s="3" t="n">
         <v>95.3</v>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="G52" s="3" t="n">
         <v>95.9</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="3" t="n">
         <v>94.4</v>
       </c>
-      <c r="I52" s="4" t="n">
+      <c r="I52" s="3" t="n">
         <v>95.7</v>
       </c>
-      <c r="J52" s="4" t="n">
+      <c r="J52" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="K52" s="4" t="n">
+      <c r="K52" s="3" t="n">
         <v>75.2</v>
       </c>
-      <c r="L52" s="4" t="n">
+      <c r="L52" s="3" t="n">
         <v>95.2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="F53" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="G53" s="4" t="n">
+      <c r="G53" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="3" t="n">
         <v>1.4</v>
       </c>
-      <c r="I53" s="4" t="n">
+      <c r="I53" s="3" t="n">
         <v>1.1</v>
       </c>
-      <c r="J53" s="4" t="n">
+      <c r="J53" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="K53" s="4" t="n">
+      <c r="K53" s="3" t="n">
         <v>8.4</v>
       </c>
-      <c r="L53" s="4" t="n">
+      <c r="L53" s="3" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="3" t="n">
         <v>0.209643605870021</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="3" t="n">
         <v>0.314465408805031</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="F54" s="3" t="n">
         <v>0.314795383001049</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="G54" s="3" t="n">
         <v>0.364963503649635</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="3" t="n">
         <v>0.741525423728813</v>
       </c>
-      <c r="I54" s="4" t="n">
+      <c r="I54" s="3" t="n">
         <v>0.574712643678161</v>
       </c>
-      <c r="J54" s="4" t="n">
+      <c r="J54" s="3" t="n">
         <v>0.829875518672199</v>
       </c>
-      <c r="K54" s="4" t="n">
+      <c r="K54" s="3" t="n">
         <v>5.58510638297872</v>
       </c>
-      <c r="L54" s="4" t="n">
+      <c r="L54" s="3" t="n">
         <v>0.157563025210084</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="n">
+      <c r="A55" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="F55" s="3" t="n">
         <v>95.7</v>
       </c>
-      <c r="G55" s="4" t="n">
+      <c r="G55" s="3" t="n">
         <v>95.1</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="I55" s="4" t="n">
+      <c r="I55" s="3" t="n">
         <v>96.2</v>
       </c>
-      <c r="J55" s="4" t="n">
+      <c r="J55" s="3" t="n">
         <v>96.7</v>
       </c>
-      <c r="K55" s="4" t="n">
+      <c r="K55" s="3" t="n">
         <v>76.3</v>
       </c>
-      <c r="L55" s="4" t="n">
+      <c r="L55" s="3" t="n">
         <v>95.4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="G56" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="H56" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="I56" s="4" t="n">
+      <c r="I56" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="J56" s="4" t="n">
+      <c r="J56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K56" s="4" t="n">
+      <c r="K56" s="3" t="n">
         <v>5.8</v>
       </c>
-      <c r="L56" s="4" t="n">
+      <c r="L56" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
+      <c r="A57" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="3" t="n">
         <v>0.159438775510204</v>
       </c>
-      <c r="E57" s="4" t="n">
+      <c r="E57" s="3" t="n">
         <v>0.212585034013605</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="F57" s="3" t="n">
         <v>0.213251444778538</v>
       </c>
-      <c r="G57" s="4" t="n">
+      <c r="G57" s="3" t="n">
         <v>0.26824609970171</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="H57" s="3" t="n">
         <v>0.43888523151196</v>
       </c>
-      <c r="I57" s="4" t="n">
+      <c r="I57" s="3" t="n">
         <v>0.424286138571853</v>
       </c>
-      <c r="J57" s="4" t="n">
+      <c r="J57" s="3" t="n">
         <v>0.527615389485681</v>
       </c>
-      <c r="K57" s="4" t="n">
+      <c r="K57" s="3" t="n">
         <v>3.87835343836093</v>
       </c>
-      <c r="L57" s="4" t="n">
+      <c r="L57" s="3" t="n">
         <v>0.106961023403072</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="E58" s="4" t="n">
+      <c r="E58" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" s="3" t="n">
         <v>95.9</v>
       </c>
-      <c r="G58" s="4" t="n">
+      <c r="G58" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="H58" s="3" t="n">
         <v>93.3</v>
       </c>
-      <c r="I58" s="4" t="n">
+      <c r="I58" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="J58" s="4" t="n">
+      <c r="J58" s="3" t="n">
         <v>96.3</v>
       </c>
-      <c r="K58" s="4" t="n">
+      <c r="K58" s="3" t="n">
         <v>74.5</v>
       </c>
-      <c r="L58" s="4" t="n">
+      <c r="L58" s="3" t="n">
         <v>95.4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
+      <c r="A59" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="F59" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="G59" s="4" t="n">
+      <c r="G59" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="H59" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="I59" s="4" t="n">
+      <c r="I59" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J59" s="4" t="n">
+      <c r="J59" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K59" s="4" t="n">
+      <c r="K59" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="L59" s="4" t="n">
+      <c r="L59" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="3" t="n">
         <v>0.159771633079119</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="3" t="n">
         <v>0.212585034013605</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" s="3" t="n">
         <v>0.212806707667426</v>
       </c>
-      <c r="G60" s="4" t="n">
+      <c r="G60" s="3" t="n">
         <v>0.322234156820623</v>
       </c>
-      <c r="H60" s="4" t="n">
+      <c r="H60" s="3" t="n">
         <v>0.437474024979767</v>
       </c>
-      <c r="I60" s="4" t="n">
+      <c r="I60" s="3" t="n">
         <v>0.537056928034372</v>
       </c>
-      <c r="J60" s="4" t="n">
+      <c r="J60" s="3" t="n">
         <v>0.529806938351665</v>
       </c>
-      <c r="K60" s="4" t="n">
+      <c r="K60" s="3" t="n">
         <v>4.10902616079989</v>
       </c>
-      <c r="L60" s="4" t="n">
+      <c r="L60" s="3" t="n">
         <v>0.106961023403072</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
+      <c r="A61" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="3" t="n">
         <v>95.8</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="G61" s="4" t="n">
+      <c r="G61" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="H61" s="4" t="n">
+      <c r="H61" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="I61" s="4" t="n">
+      <c r="I61" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="J61" s="4" t="n">
+      <c r="J61" s="3" t="n">
         <v>96.9</v>
       </c>
-      <c r="K61" s="4" t="n">
+      <c r="K61" s="3" t="n">
         <v>74.1</v>
       </c>
-      <c r="L61" s="4" t="n">
+      <c r="L61" s="3" t="n">
         <v>95.4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="F62" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G62" s="4" t="n">
+      <c r="G62" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="H62" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="I62" s="4" t="n">
+      <c r="I62" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="J62" s="4" t="n">
+      <c r="J62" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="K62" s="4" t="n">
+      <c r="K62" s="3" t="n">
         <v>8.5</v>
       </c>
-      <c r="L62" s="4" t="n">
+      <c r="L62" s="3" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
+      <c r="A63" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="3" t="n">
         <v>0.213028844105492</v>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E63" s="3" t="n">
         <v>0.265731292517007</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F63" s="3" t="n">
         <v>0.26740255850768</v>
       </c>
-      <c r="G63" s="4" t="n">
+      <c r="G63" s="3" t="n">
         <v>0.430098277456399</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="H63" s="3" t="n">
         <v>0.376335992774349</v>
       </c>
-      <c r="I63" s="4" t="n">
+      <c r="I63" s="3" t="n">
         <v>0.645147416184598</v>
       </c>
-      <c r="J63" s="4" t="n">
+      <c r="J63" s="3" t="n">
         <v>0.631831680040437</v>
       </c>
-      <c r="K63" s="4" t="n">
+      <c r="K63" s="3" t="n">
         <v>5.85254344652841</v>
       </c>
-      <c r="L63" s="4" t="n">
+      <c r="L63" s="3" t="n">
         <v>0.160441535104608</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="E64" s="4" t="n">
+      <c r="E64" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F64" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="G64" s="4" t="n">
+      <c r="G64" s="3" t="n">
         <v>96.4</v>
       </c>
-      <c r="H64" s="4" t="n">
+      <c r="H64" s="3" t="n">
         <v>94.3</v>
       </c>
-      <c r="I64" s="4" t="n">
+      <c r="I64" s="3" t="n">
         <v>95.4</v>
       </c>
-      <c r="J64" s="4" t="n">
+      <c r="J64" s="3" t="n">
         <v>96.2</v>
       </c>
-      <c r="K64" s="4" t="n">
+      <c r="K64" s="3" t="n">
         <v>81.2</v>
       </c>
-      <c r="L64" s="4" t="n">
+      <c r="L64" s="3" t="n">
         <v>95.8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E65" s="4" t="n">
+      <c r="E65" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F65" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G65" s="4" t="n">
+      <c r="G65" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="H65" s="4" t="n">
+      <c r="H65" s="3" t="n">
         <v>1.9</v>
       </c>
-      <c r="I65" s="4" t="n">
+      <c r="I65" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="J65" s="4" t="n">
+      <c r="J65" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="K65" s="4" t="n">
+      <c r="K65" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="L65" s="4" t="n">
+      <c r="L65" s="3" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="3" t="n">
         <v>0.211702938436785</v>
       </c>
-      <c r="E66" s="4" t="n">
+      <c r="E66" s="3" t="n">
         <v>0.320547066994337</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="3" t="n">
         <v>0.265731292517007</v>
       </c>
-      <c r="G66" s="4" t="n">
+      <c r="G66" s="3" t="n">
         <v>0.370480142264375</v>
       </c>
-      <c r="H66" s="4" t="n">
+      <c r="H66" s="3" t="n">
         <v>1.0279827731729</v>
       </c>
-      <c r="I66" s="4" t="n">
+      <c r="I66" s="3" t="n">
         <v>0.641766140418431</v>
       </c>
-      <c r="J66" s="4" t="n">
+      <c r="J66" s="3" t="n">
         <v>0.689464975179261</v>
       </c>
-      <c r="K66" s="4" t="n">
+      <c r="K66" s="3" t="n">
         <v>4.20981200361918</v>
       </c>
-      <c r="L66" s="4" t="n">
+      <c r="L66" s="3" t="n">
         <v>0.159771633079119</v>
       </c>
     </row>
@@ -10342,8 +10334,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10357,59 +10349,59 @@
       <c r="A1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="4" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10417,7 +10409,7 @@
       <c r="A9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10425,7 +10417,7 @@
       <c r="A10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
